--- a/tests/models/test_structures/sysconfig_simple_linear_dep.xlsx
+++ b/tests/models/test_structures/sysconfig_simple_linear_dep.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sifra/models/test_structures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sifra/tests/models/test_structures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16840" tabRatio="804"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16840" tabRatio="804" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="component_list" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="comp_type_dmg_algo" sheetId="9" r:id="rId5"/>
     <sheet name="damage_state_def" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2296,12 +2296,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
@@ -2695,7 +2695,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
   <dimension ref="A1:G12"/>
@@ -2805,13 +2805,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2903,7 +2903,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF804000"/>
   </sheetPr>
   <dimension ref="A1:O32"/>
@@ -4340,7 +4340,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C32"/>
